--- a/Study 3/Shocks/GCAM/NDC_LTT - 2070.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2070.xlsx
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1177422087836865</v>
+        <v>0.1177422087836866</v>
       </c>
     </row>
     <row r="4">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.005119869723293413</v>
+        <v>0.005119869723293414</v>
       </c>
     </row>
     <row r="8">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.02299638954759298</v>
+        <v>0.02299638954759297</v>
       </c>
     </row>
     <row r="9">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.07938304572067643</v>
+        <v>0.07938304572067642</v>
       </c>
     </row>
     <row r="13">
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.01407906532421737</v>
+        <v>0.01407906532421736</v>
       </c>
     </row>
     <row r="17">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.06323622688642948</v>
+        <v>0.06323622688642949</v>
       </c>
     </row>
     <row r="20">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.06436898919383036</v>
+        <v>0.06436898919383034</v>
       </c>
     </row>
     <row r="21">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.001707557718630295</v>
+        <v>0.001707557718630296</v>
       </c>
     </row>
     <row r="28">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.008163399416518795</v>
+        <v>0.008163399416518797</v>
       </c>
     </row>
     <row r="32">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.02380477673583593</v>
+        <v>0.02380477673583592</v>
       </c>
     </row>
     <row r="33">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3916097612017604</v>
+        <v>0.3916097612017605</v>
       </c>
     </row>
     <row r="40">
